--- a/Module7_TAM_V2/Resources/MessageData.xlsx
+++ b/Module7_TAM_V2/Resources/MessageData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsiana_Baldouskaya\source\repos\Module7_TAM\Module7_TAM_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tatsiana_Baldouskaya\source\repos\Module7_TAM\Module7_TAM_V2\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DD806E-26B9-40DC-B698-F6DD1A861F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0B2424-5A21-4007-AFEB-09D34442F511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,7 +390,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
